--- a/data/trans_bre/P29A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P29A-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-24.77539100649804</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-22.52212559010296</v>
+        <v>-22.52212559010298</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4569794838869716</v>
@@ -649,7 +649,7 @@
         <v>-0.4149637364137781</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.4226681302113054</v>
+        <v>-0.4226681302113057</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-31.60081583835512</v>
+        <v>-32.25152168006444</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-30.3034604512092</v>
+        <v>-30.53766681467814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-32.72312848916695</v>
+        <v>-33.72665639004882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-29.85650515118135</v>
+        <v>-29.66621702849488</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5713328789921746</v>
+        <v>-0.5798502429978527</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5080937103164499</v>
+        <v>-0.504023918858268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5188260341385897</v>
+        <v>-0.5289660902407454</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5170482956285953</v>
+        <v>-0.5155242657079978</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-14.69267217375712</v>
+        <v>-15.48503000084627</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-13.72918969068981</v>
+        <v>-13.95646811369168</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-15.7461642349877</v>
+        <v>-16.60061701486581</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-15.54595784387112</v>
+        <v>-15.47344646829312</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.3075506723595768</v>
+        <v>-0.3177065998523838</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2584921657283334</v>
+        <v>-0.2680955859338699</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.2866419411042986</v>
+        <v>-0.29579143202933</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.3131191629217485</v>
+        <v>-0.3198366305864123</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-36.30083074764248</v>
+        <v>-35.89228988078774</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-39.77504277595245</v>
+        <v>-39.31065941467052</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-39.46985529309536</v>
+        <v>-39.58467807129662</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-32.8718988272439</v>
+        <v>-32.30527382121892</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7914527913117506</v>
+        <v>-0.7946600962242608</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6574975359787534</v>
+        <v>-0.6550958728038508</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7210441747426504</v>
+        <v>-0.7273831510129817</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6188519336060894</v>
+        <v>-0.6170196548980879</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-25.50375027795325</v>
+        <v>-25.58696014156008</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-26.98938104933681</v>
+        <v>-27.02586903217259</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-27.75760055812292</v>
+        <v>-28.07187868864129</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-19.69737182708646</v>
+        <v>-19.66940491418515</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.6397722033313502</v>
+        <v>-0.6496453236651559</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.5024435123260663</v>
+        <v>-0.5067972182257435</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.572770681823724</v>
+        <v>-0.5809295978065594</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.4406010744413489</v>
+        <v>-0.441165602798619</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-27.29328902560353</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-34.33580709413331</v>
+        <v>-34.33580709413329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.5797668396454181</v>
@@ -849,7 +849,7 @@
         <v>-0.4402311556564411</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.5792398221760003</v>
+        <v>-0.5792398221760001</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-41.40970082068328</v>
+        <v>-41.28193685400556</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-32.24027226453746</v>
+        <v>-32.8141552399623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-34.68401541113338</v>
+        <v>-34.53262272856235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-41.18935644456722</v>
+        <v>-41.43055523193319</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6570502947929184</v>
+        <v>-0.6656894479757216</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5345912564375055</v>
+        <v>-0.53303582152679</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5297426540338306</v>
+        <v>-0.5268463144494501</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6549431836622948</v>
+        <v>-0.6570980065909431</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-26.69319708359745</v>
+        <v>-27.21794965837937</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-17.01826324818994</v>
+        <v>-16.93535919197472</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-19.04025286506343</v>
+        <v>-19.71919684337569</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-27.67055660236827</v>
+        <v>-28.33633349541119</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.4755018263484057</v>
+        <v>-0.4828724848760949</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.3176069699091162</v>
+        <v>-0.3151478847257875</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.3306823576848881</v>
+        <v>-0.3330823236199223</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.4966123640950502</v>
+        <v>-0.5000790387692992</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-23.19220870220196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-21.72802592526348</v>
+        <v>-21.72802592526347</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4684452140767654</v>
@@ -949,7 +949,7 @@
         <v>-0.3923966947050864</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3985384370757009</v>
+        <v>-0.3985384370757006</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-36.90002729963997</v>
+        <v>-37.38456215702391</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-35.01936713407166</v>
+        <v>-35.2272785001031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-30.76093166111539</v>
+        <v>-29.9867965799324</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-30.59338685781691</v>
+        <v>-30.13187241139643</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5443328033369107</v>
+        <v>-0.5529360539436781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6904010307329511</v>
+        <v>-0.6989375373270422</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4887776598272786</v>
+        <v>-0.488536482507424</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5040214059037696</v>
+        <v>-0.5073440983032149</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-23.10515864747066</v>
+        <v>-23.66433552610343</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-21.77599696037475</v>
+        <v>-21.57101353222711</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-15.47126589049742</v>
+        <v>-15.32513813255002</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-14.24870877204319</v>
+        <v>-13.20053437086342</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3639554399326196</v>
+        <v>-0.3800250891736592</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4919909437879823</v>
+        <v>-0.4986613611843981</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2814656455050784</v>
+        <v>-0.282320780925058</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2855139421984881</v>
+        <v>-0.271135537291314</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-24.27866978433425</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-11.82558702531169</v>
+        <v>-11.8255870253117</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5711033727714391</v>
@@ -1049,7 +1049,7 @@
         <v>-0.5861233336076388</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.7124532063013931</v>
+        <v>-0.7124532063013932</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-32.69524284189318</v>
+        <v>-32.40655854400801</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-44.20070532979732</v>
+        <v>-44.70178355945657</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-32.75893466519377</v>
+        <v>-32.12624431778117</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-17.49352790587704</v>
+        <v>-17.31105721890064</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6897390041287018</v>
+        <v>-0.6973427780207981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.7258284800126451</v>
+        <v>-0.7215964900814429</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7071388427757679</v>
+        <v>-0.7076919372285659</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.8430816901548187</v>
+        <v>-0.8354353781900725</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-14.70244404236248</v>
+        <v>-14.87975454735877</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-26.82491946370991</v>
+        <v>-26.27537024261725</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-16.0239820317966</v>
+        <v>-16.03475980134424</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-6.503715407620255</v>
+        <v>-7.17294302330847</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.3855545680253696</v>
+        <v>-0.3931377511351352</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.499170749004245</v>
+        <v>-0.4902696871814254</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.432816259893817</v>
+        <v>-0.4267692821511092</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.4578489745441402</v>
+        <v>-0.4722542141587919</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-33.06514639093064</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-23.07857023545964</v>
+        <v>-23.07857023545965</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4492265011744367</v>
@@ -1149,7 +1149,7 @@
         <v>-0.4685087235764093</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3826756342476755</v>
+        <v>-0.3826756342476758</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-40.11257418487221</v>
+        <v>-39.56171335769513</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-43.00570254860551</v>
+        <v>-43.44440140432294</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-40.71067667757823</v>
+        <v>-41.10042222896739</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-29.76472579199017</v>
+        <v>-29.80201163806131</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5475915984236469</v>
+        <v>-0.5346978402225642</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6330767446954282</v>
+        <v>-0.6307515323400378</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5490064807522927</v>
+        <v>-0.5610193195212656</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4645855391465533</v>
+        <v>-0.4725546914539639</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-23.77422816927605</v>
+        <v>-23.95744051447597</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-26.95187434693083</v>
+        <v>-27.54048463102048</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-24.71034433435698</v>
+        <v>-24.89561537614142</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-15.68917549059003</v>
+        <v>-15.05870390565043</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3553814026100267</v>
+        <v>-0.3519960902508863</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.4464728035706004</v>
+        <v>-0.4516641151171222</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.3621657711531902</v>
+        <v>-0.3694283973260951</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2729901501226885</v>
+        <v>-0.268577949872741</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-30.8357300250927</v>
+        <v>-30.79066542590408</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-35.38039408679036</v>
+        <v>-35.4462517475931</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-27.08279820437209</v>
+        <v>-26.68802379802587</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-23.43537374301793</v>
+        <v>-23.75557096182333</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6418953037290944</v>
+        <v>-0.6422146225339854</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.5891534992066211</v>
+        <v>-0.5881830897850843</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4431208712615007</v>
+        <v>-0.4431690489170358</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4498394225370762</v>
+        <v>-0.4543997750350404</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-20.46560519407141</v>
+        <v>-19.91474061766083</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-23.94058461209121</v>
+        <v>-24.65202996330325</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-15.68731727316613</v>
+        <v>-15.03270702146581</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-13.19104784929705</v>
+        <v>-13.01268078908728</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.4832389264962184</v>
+        <v>-0.476512266663779</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.4447134600750773</v>
+        <v>-0.4518325981163071</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.2818513822947472</v>
+        <v>-0.2770609725518393</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.2818667862738865</v>
+        <v>-0.2816472927227138</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-41.49905215596475</v>
+        <v>-40.2977285765623</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-36.79291315437076</v>
+        <v>-36.48091997984903</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-30.75624531965811</v>
+        <v>-31.10844768991159</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-29.6309091245958</v>
+        <v>-29.59194805500373</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6280025580918982</v>
+        <v>-0.6209344989759048</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6455314704787202</v>
+        <v>-0.6413851127721444</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5294093350029982</v>
+        <v>-0.5288191286692896</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7059416108522634</v>
+        <v>-0.7091071043158667</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-31.64126266226554</v>
+        <v>-30.34659883036549</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-26.98688330647277</v>
+        <v>-26.91058686268675</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-20.82644112452291</v>
+        <v>-21.63345816562033</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-21.21913883201015</v>
+        <v>-20.71065313916119</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.5187153336386137</v>
+        <v>-0.5018080095517982</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.5175478374244544</v>
+        <v>-0.5172896482949108</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3962088825292133</v>
+        <v>-0.4005242675359173</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.5810952393678913</v>
+        <v>-0.571998612399615</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-26.39188510932822</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-23.36939837237259</v>
+        <v>-23.36939837237258</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.5537668140592789</v>
@@ -1449,7 +1449,7 @@
         <v>-0.4620034145232896</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.489607373888893</v>
+        <v>-0.4896073738888929</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-32.9039712831316</v>
+        <v>-32.57099024360622</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-32.6461799959815</v>
+        <v>-32.71049786829571</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-28.73630851583644</v>
+        <v>-28.70828706744075</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-25.62667997413068</v>
+        <v>-25.58654151399016</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.5862193734478314</v>
+        <v>-0.583005567401313</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.573480537173361</v>
+        <v>-0.5713751575156462</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.4934016941741268</v>
+        <v>-0.4955648896092524</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.5228484557706783</v>
+        <v>-0.5233637706404728</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-28.10554821506487</v>
+        <v>-28.19905703065165</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-27.87298053237454</v>
+        <v>-28.11104512893478</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-23.85110666265632</v>
+        <v>-24.01209933450884</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-21.22723364022518</v>
+        <v>-21.03587161065569</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.5215860593631899</v>
+        <v>-0.5233598355760218</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.5110700296360722</v>
+        <v>-0.5122558690458842</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.4274578542186138</v>
+        <v>-0.4295290886081692</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.4559122530383359</v>
+        <v>-0.4569316400449239</v>
       </c>
     </row>
     <row r="31">
